--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Parkinson-Disease\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62A1E2A-3B5C-49A9-A9E6-556E840307DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4A9EBB-9845-47A6-8066-5DF444884134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F6BA7E5F-A89F-4C60-8574-3EC9BEB3D0AD}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
-  <si>
-    <t>STT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>All feature</t>
   </si>
@@ -72,13 +69,40 @@
   </si>
   <si>
     <t>Naïve Bays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAIN MODEL </t>
+  </si>
+  <si>
+    <t>TRAIN MODEL (LOOP )</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>F1_Score</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>SGDClassifier</t>
+  </si>
+  <si>
+    <t>K-Nearest Neighbors (KNN)</t>
+  </si>
+  <si>
+    <t>Support Vector Machine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +112,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,8 +144,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7525C3-68B6-4699-8288-64D69FDBE1C7}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -442,183 +476,289 @@
     <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>91.53</v>
+      </c>
+      <c r="E3">
+        <v>93.22</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1">
+        <v>89.83</v>
+      </c>
+      <c r="L3">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D4">
+        <v>84.1</v>
+      </c>
+      <c r="E4">
+        <v>88.72</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1">
+        <v>84.75</v>
+      </c>
+      <c r="L4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>89.83</v>
+      </c>
+      <c r="E5">
         <v>91.53</v>
       </c>
-      <c r="E2">
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1">
+        <v>89.83</v>
+      </c>
+      <c r="L5">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>94.92</v>
+      </c>
+      <c r="E6">
+        <v>96.61</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1">
+        <v>64.41</v>
+      </c>
+      <c r="L6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>90.77</v>
+      </c>
+      <c r="E7">
+        <v>91.28</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="1">
+        <v>86.44</v>
+      </c>
+      <c r="L7">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>91.52</v>
+      </c>
+      <c r="E8">
+        <v>94.91</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1">
+        <v>96.61</v>
+      </c>
+      <c r="L8">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>84.75</v>
+      </c>
+      <c r="E9">
+        <v>86.44</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1">
         <v>93.22</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
+      <c r="L9">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>81.540000000000006</v>
+      </c>
+      <c r="E10">
+        <v>81.540000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>84.1</v>
-      </c>
-      <c r="E3">
-        <v>88.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>89.83</v>
-      </c>
-      <c r="E4">
-        <v>91.53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D11">
+        <v>93.22</v>
+      </c>
+      <c r="E11">
+        <v>91.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>67.8</v>
+      </c>
+      <c r="E12">
+        <v>64.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>94.92</v>
-      </c>
-      <c r="E5">
-        <v>96.61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
+      <c r="D13">
+        <v>69.739999999999995</v>
+      </c>
+      <c r="E13">
+        <v>68.209999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D6">
-        <v>90.77</v>
-      </c>
-      <c r="E6">
-        <v>91.28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>91.52</v>
-      </c>
-      <c r="E7">
-        <v>94.91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>84.75</v>
-      </c>
-      <c r="E8">
-        <v>86.44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>81.540000000000006</v>
-      </c>
-      <c r="E9">
-        <v>81.540000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>93.22</v>
-      </c>
-      <c r="E10">
-        <v>91.52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>67.8</v>
-      </c>
-      <c r="E11">
-        <v>64.41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>69.739999999999995</v>
-      </c>
-      <c r="E12">
-        <v>68.209999999999994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13">
+      <c r="D14">
         <v>67.790000000000006</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>67.790000000000006</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Parkinson-Disease\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4A9EBB-9845-47A6-8066-5DF444884134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246BE72E-FE2C-47B1-9053-00CB63EA21FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F6BA7E5F-A89F-4C60-8574-3EC9BEB3D0AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>All feature</t>
   </si>
@@ -56,9 +56,6 @@
     <t>70 -30</t>
   </si>
   <si>
-    <t>k fold (n=5)</t>
-  </si>
-  <si>
     <t>Scaler</t>
   </si>
   <si>
@@ -96,6 +93,12 @@
   </si>
   <si>
     <t>Support Vector Machine</t>
+  </si>
+  <si>
+    <t>k- fold (n=5)</t>
+  </si>
+  <si>
+    <t>k-fold (n=5)</t>
   </si>
 </sst>
 </file>
@@ -463,16 +466,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7525C3-68B6-4699-8288-64D69FDBE1C7}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
@@ -481,15 +484,15 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -504,16 +507,16 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
         <v>4</v>
       </c>
       <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
         <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -536,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="1">
         <v>89.83</v>
@@ -547,7 +550,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>84.1</v>
@@ -559,7 +562,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="1">
         <v>84.75</v>
@@ -570,7 +573,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>89.83</v>
@@ -582,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="1">
         <v>89.83</v>
@@ -596,7 +599,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -611,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K6" s="1">
         <v>64.41</v>
@@ -622,7 +625,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>90.77</v>
@@ -634,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="1">
         <v>86.44</v>
@@ -645,7 +648,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>91.52</v>
@@ -657,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K8" s="1">
         <v>96.61</v>
@@ -671,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -697,7 +700,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>81.540000000000006</v>
@@ -708,7 +711,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>93.22</v>
@@ -722,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -736,7 +739,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>69.739999999999995</v>
@@ -747,13 +750,52 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>67.790000000000006</v>
       </c>
       <c r="E14">
         <v>67.790000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>89.83</v>
+      </c>
+      <c r="E15">
+        <v>89.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>85.13</v>
+      </c>
+      <c r="E16">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>86.44</v>
+      </c>
+      <c r="E17">
+        <v>89.83</v>
       </c>
     </row>
   </sheetData>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Parkinson-Disease\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246BE72E-FE2C-47B1-9053-00CB63EA21FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA64354F-65C8-41A9-BA63-5AD3FD134871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F6BA7E5F-A89F-4C60-8574-3EC9BEB3D0AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>All feature</t>
   </si>
@@ -80,25 +80,22 @@
     <t>ACC</t>
   </si>
   <si>
-    <t>F1_Score</t>
-  </si>
-  <si>
     <t>Logistic Regression</t>
   </si>
   <si>
     <t>SGDClassifier</t>
   </si>
   <si>
-    <t>K-Nearest Neighbors (KNN)</t>
-  </si>
-  <si>
-    <t>Support Vector Machine</t>
-  </si>
-  <si>
     <t>k- fold (n=5)</t>
   </si>
   <si>
     <t>k-fold (n=5)</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>F1-score</t>
   </si>
 </sst>
 </file>
@@ -127,12 +124,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,11 +150,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,6 +172,1102 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6778215223097111E-2"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.90540716090771667"/>
+          <c:h val="0.4037682268883056"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ACC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$3:$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SGDClassifier</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Naïve Bays</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CA2-459F-AB5D-A3A0ACE81EA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1-score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$3:$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SGDClassifier</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Naïve Bays</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0CA2-459F-AB5D-A3A0ACE81EA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1128337408"/>
+        <c:axId val="1128323488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1128337408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1128323488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1128323488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1128337408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCF7876-1604-9611-9B2F-8BEE650E9D83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7525C3-68B6-4699-8288-64D69FDBE1C7}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -516,7 +1617,7 @@
         <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -539,18 +1640,18 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" s="1">
-        <v>89.83</v>
-      </c>
-      <c r="L3">
+        <v>0.9</v>
+      </c>
+      <c r="L3" s="3">
         <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>84.1</v>
@@ -562,12 +1663,12 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="1">
-        <v>84.75</v>
-      </c>
-      <c r="L4">
+        <v>0.85</v>
+      </c>
+      <c r="L4" s="3">
         <v>0.88</v>
       </c>
     </row>
@@ -585,12 +1686,12 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" s="1">
-        <v>89.83</v>
-      </c>
-      <c r="L5">
+        <v>0.89</v>
+      </c>
+      <c r="L5" s="3">
         <v>0.93600000000000005</v>
       </c>
     </row>
@@ -617,15 +1718,15 @@
         <v>9</v>
       </c>
       <c r="K6" s="1">
-        <v>64.41</v>
-      </c>
-      <c r="L6">
+        <v>0.64</v>
+      </c>
+      <c r="L6" s="3">
         <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>90.77</v>
@@ -637,12 +1738,12 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K7" s="1">
-        <v>86.44</v>
-      </c>
-      <c r="L7">
+        <v>0.86</v>
+      </c>
+      <c r="L7" s="3">
         <v>0.92</v>
       </c>
     </row>
@@ -663,26 +1764,26 @@
         <v>7</v>
       </c>
       <c r="K8" s="1">
-        <v>96.61</v>
-      </c>
-      <c r="L8">
+        <v>0.97</v>
+      </c>
+      <c r="L8" s="3">
         <v>0.98</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>84.75</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>86.44</v>
       </c>
       <c r="I9">
@@ -692,31 +1793,35 @@
         <v>3</v>
       </c>
       <c r="K9" s="1">
-        <v>93.22</v>
-      </c>
-      <c r="L9">
+        <v>0.93</v>
+      </c>
+      <c r="L9" s="3">
         <v>0.94</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
         <v>81.540000000000006</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>81.540000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>93.22</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>91.52</v>
       </c>
     </row>
@@ -739,7 +1844,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>69.739999999999995</v>
@@ -764,7 +1869,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -778,7 +1883,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>85.13</v>
@@ -802,5 +1907,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>